--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T09:58:25+00:00</t>
+    <t>2022-05-31T10:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:10:02+00:00</t>
+    <t>2022-05-31T22:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T22:14:36+00:00</t>
+    <t>2022-06-01T13:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:57:06+00:00</t>
+    <t>2022-06-01T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:56:45+00:00</t>
+    <t>2022-06-01T15:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:57:53+00:00</t>
+    <t>2022-06-06T08:53:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T08:53:46+00:00</t>
+    <t>2022-06-06T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T12:38:00+00:00</t>
+    <t>2022-06-07T12:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:41:09+00:00</t>
+    <t>2022-06-07T12:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:51:30+00:00</t>
+    <t>2022-06-08T14:01:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T14:01:48+00:00</t>
+    <t>2022-06-10T09:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T09:36:45+00:00</t>
+    <t>2022-06-13T16:57:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13T16:57:46+00:00</t>
+    <t>2022-06-28T09:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/drugCharacteristic</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/drugCharacteristic</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T09:17:31+00:00</t>
+    <t>2022-06-28T12:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:38:26+00:00</t>
+    <t>2022-09-30T13:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -694,39 +694,39 @@
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="18.69921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T13:06:24+00:00</t>
+    <t>2022-10-08T08:36:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -250,56 +250,56 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>characteristicType</t>
@@ -933,7 +933,7 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>74</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -952,25 +952,25 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1021,13 +1021,13 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>74</v>
@@ -1036,12 +1036,12 @@
         <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>76</v>
@@ -1064,13 +1064,13 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1109,19 +1109,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1133,7 +1133,7 @@
         <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>74</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>94</v>
@@ -1151,10 +1151,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>74</v>
@@ -1166,13 +1166,13 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1223,7 +1223,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -1235,7 +1235,7 @@
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>74</v>
@@ -1254,25 +1254,25 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1323,13 +1323,13 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
@@ -1338,7 +1338,7 @@
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1366,13 +1366,13 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1411,19 +1411,19 @@
         <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AC7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -1435,7 +1435,7 @@
         <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>74</v>
@@ -1451,10 +1451,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>74</v>
@@ -1528,10 +1528,10 @@
         <v>102</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
@@ -1556,7 +1556,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>74</v>
@@ -1631,7 +1631,7 @@
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>110</v>
@@ -1655,10 +1655,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>74</v>
@@ -1670,13 +1670,13 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1727,7 +1727,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -1739,7 +1739,7 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
@@ -1758,25 +1758,25 @@
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J11" t="s" s="2">
+      <c r="K11" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1827,13 +1827,13 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
@@ -1842,7 +1842,7 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -1870,13 +1870,13 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1915,19 +1915,19 @@
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB12" t="s" s="2">
+      <c r="AC12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD12" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD12" t="s" s="2">
+      <c r="AE12" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -1939,7 +1939,7 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
@@ -1955,10 +1955,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
@@ -2032,10 +2032,10 @@
         <v>102</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
@@ -2060,7 +2060,7 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
@@ -2135,7 +2135,7 @@
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
@@ -2157,10 +2157,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>74</v>
@@ -2234,10 +2234,10 @@
         <v>102</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
@@ -2337,7 +2337,7 @@
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:36:27+00:00</t>
+    <t>2022-10-08T08:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:41:45+00:00</t>
+    <t>2022-10-08T08:44:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:44:11+00:00</t>
+    <t>2022-10-08T08:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-drugCharacteristic.xlsx
+++ b/branches/master/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:47:47+00:00</t>
+    <t>2022-10-08T09:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
